--- a/docs/PTA2_DDC_80/PTA2_DDC_80_14.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,139 +505,157 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731778443.3662543</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731778443.3662543.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731778443.3662543.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.04</v>
       </c>
-      <c r="J3" t="n">
-        <v>283.04</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>282.27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.7700000000000387</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731778448.30746</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731778450.1445577</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778448.30746.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778450.1445577.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.04</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.24</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -635,51 +663,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731778450.726163</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731778451.4229188</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778450.726163.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778451.4229188.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.68</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>284.21</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5299999999999727</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -687,95 +721,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731778454.223837</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731778454.223837.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731778454.223837.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.84</v>
       </c>
-      <c r="J6" t="n">
-        <v>283.84</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>282.91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.92999999999995</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731778459.624838</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731778460.5742922</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778459.624838.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778460.5742922.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>131.25</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.09</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -783,95 +829,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731778460.9257247</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731778460.9257247.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731778460.9257247.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>130.86</v>
       </c>
-      <c r="J8" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>130.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731778463.8829055</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731778464.579607</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778463.8829055.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778464.579607.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6492</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6494</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -879,95 +937,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731778466.5485396</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731778466.5485396.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731778466.5485396.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6486.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>6486.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6461</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731778468.7811837</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731778469.5924141</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778468.7811837.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778469.5924141.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>502.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>503.8</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -975,51 +1045,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731778469.7128105</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731778470.9116645</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778469.7128105.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778470.9116645.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>504.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>502.55</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1027,51 +1103,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731778471.9146044</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731778472.3153567</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778471.9146044.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778472.3153567.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>504.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>503.8</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1079,139 +1161,157 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731778472.791127</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731778472.791127.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731778472.791127.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>502.55</v>
       </c>
-      <c r="J14" t="n">
-        <v>502.55</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>501.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.050000000000011</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731778475.6713552</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731778475.6713552.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731778475.6713552.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>225.78</v>
       </c>
-      <c r="J15" t="n">
-        <v>225.78</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>224.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1.47999999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731778481.8911073</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731778482.463542</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778481.8911073.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778482.463542.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1059</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1063</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1219,51 +1319,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731778482.9893572</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731778484.3050747</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778482.9893572.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778484.3050747.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1065.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1062.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>3</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1271,95 +1377,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731778485.004402</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731778485.004402.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731778485.004402.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1059</v>
       </c>
-      <c r="J18" t="n">
-        <v>1059</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1060</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731778489.941625</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731778490.1457052</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778489.941625.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778490.1457052.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>12.209</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>12.195</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.01399999999999935</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1367,95 +1485,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731778490.7593102</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731778490.7593102.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731778490.7593102.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>12.163</v>
       </c>
-      <c r="J20" t="n">
-        <v>12.163</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>12.088</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.07500000000000107</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731778493.1185153</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731778494.665979</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778493.1185153.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778494.665979.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.08</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>127.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1463,95 +1593,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731778497.103686</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731778497.103686.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731778497.103686.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>126.84</v>
       </c>
-      <c r="J22" t="n">
-        <v>126.84</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>126.16</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731778500.1176658</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731778500.8561234</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778500.1176658.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778500.8561234.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>164.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>165.24</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1559,95 +1701,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731778503.3400323</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731778503.3400323.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731778503.3400323.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>164.82</v>
       </c>
-      <c r="J24" t="n">
-        <v>164.82</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>164.16</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731778506.8401122</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731778507.3988073</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778506.8401122.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778507.3988073.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>50.545</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>50.495</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1655,95 +1809,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731778508.982824</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731778508.982824.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731778508.982824.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>50.4</v>
       </c>
-      <c r="J26" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>50.14</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.259999999999998</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731778512.8167489</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731778514.438598</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778512.8167489.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778514.438598.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1409.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1406.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1751,95 +1917,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731778515.0191977</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731778515.0191977.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731778515.0191977.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J28" t="n">
-        <v>1406.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1401</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-5.200000000000045</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731778521.8793516</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731778523.3572223</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778521.8793516.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778523.3572223.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>59.64</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>59.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1847,51 +2025,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731778524.9164453</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731778525.3573818</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778524.9164453.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778525.3573818.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>101.02</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>101.35</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1899,51 +2083,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731778525.7250853</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731778528.2168972</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778525.7250853.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778528.2168972.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>101.65</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>101.56</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1951,95 +2141,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731778528.3818066</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731778528.3818066.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731778528.3818066.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>101.42</v>
       </c>
-      <c r="J32" t="n">
-        <v>101.42</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>101.06</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.3599999999999994</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731778533.9956014</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731778534.2854652</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778533.9956014.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778534.2854652.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>57.29</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>57.12</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2047,95 +2249,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731778534.5921683</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731778534.5921683.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731778534.5921683.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>56.95</v>
       </c>
-      <c r="J34" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>56.71</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.240000000000002</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731778536.8174882</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731778537.1874557</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778536.8174882.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778537.1874557.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>157.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>158.32</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2143,95 +2357,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731778540.58864</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731778540.58864.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731778540.58864.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>156.92</v>
       </c>
-      <c r="J36" t="n">
-        <v>156.92</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>156.98</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731778548.3432374</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731778549.0216982</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778548.3432374.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778549.0216982.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>20.814</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>20.915</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1009999999999991</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2239,51 +2465,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731778552.1481576</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731778553.313076</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778552.1481576.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778553.313076.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>20.801</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>20.79</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.01099999999999923</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2291,51 +2523,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731778557.1825793</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731778557.8745987</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778557.1825793.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778557.8745987.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>694.15</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>693.05</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2343,95 +2581,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731778558.0136857</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731778558.0136857.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731778558.0136857.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>691.6</v>
       </c>
-      <c r="J40" t="n">
-        <v>691.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>690.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731778562.836949</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731778563.3271525</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778562.836949.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778563.3271525.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>159.17</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>158.81</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2439,44 +2689,50 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731778563.5955708</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731778563.5955708.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731778563.5955708.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>158.36</v>
       </c>
-      <c r="J42" t="n">
-        <v>158.36</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>156.26</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-2.100000000000023</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.33</v>
       </c>
     </row>
   </sheetData>
@@ -2537,19 +2793,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.800000000000011</v>
+        <v>3.75</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.200000000000003</v>
+        <v>0.9375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F2" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -2559,19 +2815,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4200000000000017</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1400000000000006</v>
+        <v>0.02000000000000076</v>
       </c>
       <c r="E3" t="n">
-        <v>0.42</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -2581,19 +2837,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.729999999999961</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5766666666666538</v>
+        <v>0.2666666666666704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61</v>
+        <v>0.28</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -2603,19 +2859,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -2647,19 +2903,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3599999999999852</v>
+        <v>-1.740000000000038</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1799999999999926</v>
+        <v>-0.8700000000000188</v>
       </c>
       <c r="E7" t="n">
-        <v>0.23</v>
+        <v>-1.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="8">
@@ -2669,19 +2925,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="E8" t="n">
-        <v>0.46</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -2691,19 +2947,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.100000000000023</v>
+        <v>-0.3999999999999773</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5500000000000114</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="E9" t="n">
-        <v>0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
@@ -2713,19 +2969,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1700000000000017</v>
+        <v>-0.07000000000000028</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08500000000000085</v>
+        <v>-0.03500000000000014</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>-0.12</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="11">
@@ -2735,19 +2991,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4399999999999977</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2199999999999989</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>-0.13</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
@@ -2757,19 +3013,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05000000000000426</v>
+        <v>-0.2099999999999937</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02500000000000213</v>
+        <v>-0.1049999999999969</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>-0.42</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="13">
@@ -2779,19 +3035,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2</v>
+        <v>-27.5</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>-13.75</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="14">
@@ -2801,19 +3057,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4200000000000017</v>
+        <v>-0.2600000000000051</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2100000000000009</v>
+        <v>-0.1300000000000026</v>
       </c>
       <c r="E14" t="n">
-        <v>0.33</v>
+        <v>-0.21</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="15">
@@ -2823,19 +3079,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07999999999999829</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
@@ -2845,19 +3101,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01399999999999935</v>
+        <v>-0.06100000000000172</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006999999999999673</v>
+        <v>-0.03050000000000086</v>
       </c>
       <c r="E16" t="n">
-        <v>0.11</v>
+        <v>-0.51</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="17">
@@ -2867,19 +3123,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.599999999999909</v>
+        <v>-1.600000000000136</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.799999999999955</v>
+        <v>-0.8000000000000682</v>
       </c>
       <c r="E17" t="n">
-        <v>0.26</v>
+        <v>-0.11</v>
       </c>
       <c r="F17" t="n">
-        <v>0.13</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="18">
@@ -2911,19 +3167,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.47999999999999</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.47999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="20">
@@ -2933,19 +3189,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.7700000000000387</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.7700000000000387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="21">
